--- a/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
+++ b/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ETAS\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D1529F-88DC-435E-81A0-09857B6A7A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2174C-9B17-4A0B-8461-E9C633F8AD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Aufgaben (abgeschätzt)</t>
   </si>
@@ -56,40 +56,82 @@
     <t>Tatsache</t>
   </si>
   <si>
-    <t>Projekt anlegen</t>
-  </si>
-  <si>
-    <t>ECU ESDL schreiben</t>
-  </si>
-  <si>
-    <t>Display Block Diagramm zusammen klicken</t>
-  </si>
-  <si>
-    <t>State Maschine in Block Modul verpacken</t>
-  </si>
-  <si>
-    <t>Messages erzeugen</t>
-  </si>
-  <si>
-    <t>Display in Modul umwandeln</t>
-  </si>
-  <si>
-    <t>App erzeugen und ggf. konfigurieren</t>
-  </si>
-  <si>
-    <t>Experiment aufrufen und konfigurieren</t>
-  </si>
-  <si>
-    <t>Stimuli erzeugen</t>
-  </si>
-  <si>
-    <t>Experiment ausführen</t>
-  </si>
-  <si>
-    <t>Tabelle einbauen</t>
-  </si>
-  <si>
     <t>Summen</t>
+  </si>
+  <si>
+    <t>Driver konstante Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Ausweich Manöver Lenkung ansteuern</t>
+  </si>
+  <si>
+    <t>Driver Emergency Signal senden</t>
+  </si>
+  <si>
+    <t>Ausweich Manöver einbauen</t>
+  </si>
+  <si>
+    <t>Lane Change einbauen</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Ausweich Manöver verifizieren</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Obstacles einbauen</t>
+  </si>
+  <si>
+    <t>System Test</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>Unit Test</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R2, R5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D2, R4, D10</t>
+  </si>
+  <si>
+    <t>Bremse mit einbeziehen</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>Automated Driver für unterschiedliche Geschwindigkeiten</t>
+  </si>
+  <si>
+    <t>Stunden</t>
+  </si>
+  <si>
+    <t>Tage</t>
   </si>
 </sst>
 </file>
@@ -451,345 +493,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60258BEF-466A-4C51-9F73-8D63F9E075FE}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <f>(C2+4*D2+E2)/6</f>
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <f>(E2-C2)^2/36</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">(C3+4*D3+E3)/6</f>
+        <v>97.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="1">(E3-C3)^2/36</f>
+        <v>506.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>240</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>240</v>
+      </c>
+      <c r="E6">
+        <v>480</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <v>240</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>180</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>180</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>180</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+      <c r="E12">
+        <v>240</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G4:G13" si="2">(E13-C13)^2/36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>(B2+C2+D2)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <f>(D2-B2)^2/36</f>
+      <c r="F14">
+        <f>SUM(F2:F13)</f>
+        <v>1477.5</v>
+      </c>
+      <c r="G14">
+        <f>SUM(G2:G13)</f>
+        <v>7756.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F16">
+        <f>F14+2*G14^0.5</f>
+        <v>1653.6391495380853</v>
+      </c>
+      <c r="H16">
+        <f>SUM(H2:H13)</f>
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">(B3+C3+D3)/6</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F12" si="1">(D3-B3)^2/36</f>
-        <v>0.25</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <f>SUM(E2:E12)</f>
-        <v>14.5</v>
-      </c>
-      <c r="F13">
-        <f>SUM(F2:F12)</f>
-        <v>2.1944444444444446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E15">
-        <f>E13+2*F13^0.5</f>
-        <v>17.462731472438531</v>
-      </c>
-      <c r="G15">
-        <f>SUM(G2:G12)</f>
-        <v>62.3</v>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>F16/60</f>
+        <v>27.560652492301422</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f>F17/3</f>
+        <v>9.1868841641004746</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
+++ b/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ETAS\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2174C-9B17-4A0B-8461-E9C633F8AD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE21EF4B-7F43-4CDD-ACE2-5DED09D891D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +561,9 @@
         <f>(E2-C2)^2/36</f>
         <v>100</v>
       </c>
+      <c r="H2">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -586,6 +589,9 @@
         <f t="shared" ref="G3:G12" si="1">(E3-C3)^2/36</f>
         <v>506.25</v>
       </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -611,6 +617,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -845,7 +854,7 @@
       </c>
       <c r="H16">
         <f>SUM(H2:H13)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">

--- a/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
+++ b/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ETAS\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE21EF4B-7F43-4CDD-ACE2-5DED09D891D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007A320A-7325-47E0-92D3-A5AF642EF03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +645,9 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -670,6 +673,9 @@
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -854,7 +860,7 @@
       </c>
       <c r="H16">
         <f>SUM(H2:H13)</f>
-        <v>65</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">

--- a/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
+++ b/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ETAS\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007A320A-7325-47E0-92D3-A5AF642EF03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FE4E9-A550-4EF6-B739-AF17DC70BB91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Aufgaben (abgeschätzt)</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Tage</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>Bereits mit Ausweichen umgesetzt</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60258BEF-466A-4C51-9F73-8D63F9E075FE}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +517,7 @@
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -536,8 +542,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -565,7 +574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -593,7 +602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -621,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -649,7 +658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -674,10 +683,10 @@
         <v>2500</v>
       </c>
       <c r="H6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -702,7 +711,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -726,8 +735,14 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -752,7 +767,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -777,7 +792,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -802,7 +817,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -827,17 +842,17 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G4:G13" si="2">(E13-C13)^2/36</f>
+        <f t="shared" ref="G13" si="2">(E13-C13)^2/36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,7 +865,7 @@
         <v>7756.25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <v>0.95</v>
       </c>
@@ -860,7 +875,7 @@
       </c>
       <c r="H16">
         <f>SUM(H2:H13)</f>
-        <v>230</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">

--- a/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
+++ b/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ETAS\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FE4E9-A550-4EF6-B739-AF17DC70BB91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9BA21D-3367-4C47-A2F2-5237D1A3C1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Aufgaben (abgeschätzt)</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Bemerkung</t>
-  </si>
-  <si>
-    <t>Bereits mit Ausweichen umgesetzt</t>
   </si>
 </sst>
 </file>
@@ -502,7 +499,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,6 +707,9 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -735,12 +735,6 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -765,6 +759,9 @@
       <c r="G9">
         <f t="shared" si="1"/>
         <v>225</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -875,7 +872,7 @@
       </c>
       <c r="H16">
         <f>SUM(H2:H13)</f>
-        <v>560</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">

--- a/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
+++ b/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ETAS\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fschi\ETAS\ASCET-DEVELOPER-7.6.0\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9BA21D-3367-4C47-A2F2-5237D1A3C1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3684AFA-01C5-40B4-9B4A-42B77B326C48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
+    <workbookView xWindow="700" yWindow="4020" windowWidth="17550" windowHeight="14570" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -499,22 +499,22 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -543,7 +543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -571,7 +571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -599,7 +599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -683,7 +683,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -711,7 +711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -735,8 +735,11 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -761,10 +764,10 @@
         <v>225</v>
       </c>
       <c r="H9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -789,7 +792,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -814,7 +817,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -839,7 +842,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,7 +865,7 @@
         <v>7756.25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E16" s="2">
         <v>0.95</v>
       </c>
@@ -872,10 +875,10 @@
       </c>
       <c r="H16">
         <f>SUM(H2:H13)</f>
-        <v>710</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F17">
         <f>F16/60</f>
         <v>27.560652492301422</v>
@@ -883,8 +886,12 @@
       <c r="G17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>H16/60</f>
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F18">
         <f>F17/3</f>
         <v>9.1868841641004746</v>

--- a/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
+++ b/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fschi\ETAS\ASCET-DEVELOPER-7.6.0\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3684AFA-01C5-40B4-9B4A-42B77B326C48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B27EAB3-0020-4A6F-91F9-D0E121ACC7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="4020" windowWidth="17550" windowHeight="14570" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
+    <workbookView xWindow="14870" yWindow="4080" windowWidth="17550" windowHeight="14570" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -791,6 +791,9 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
+      <c r="H10">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -875,7 +878,7 @@
       </c>
       <c r="H16">
         <f>SUM(H2:H13)</f>
-        <v>760</v>
+        <v>882</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.35">
@@ -888,7 +891,7 @@
       </c>
       <c r="H17">
         <f>H16/60</f>
-        <v>12.666666666666666</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.35">

--- a/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
+++ b/Dokumentation/Aufwand_dreiPunkt_Methode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fschi\ETAS\ASCET-DEVELOPER-7.6.0\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saurm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B27EAB3-0020-4A6F-91F9-D0E121ACC7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE7490-0148-4785-8988-60D920B14387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14870" yWindow="4080" windowWidth="17550" windowHeight="14570" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2403F6F-5791-4371-9394-4C499AB23289}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Aufgaben (abgeschätzt)</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Tatsache</t>
   </si>
   <si>
-    <t>Summen</t>
-  </si>
-  <si>
     <t>Driver konstante Geschwindigkeit</t>
   </si>
   <si>
@@ -119,22 +116,10 @@
     <t>D2, R4, D10</t>
   </si>
   <si>
-    <t>Bremse mit einbeziehen</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
     <t>Automated Driver für unterschiedliche Geschwindigkeiten</t>
   </si>
   <si>
     <t>Stunden</t>
-  </si>
-  <si>
-    <t>Tage</t>
-  </si>
-  <si>
-    <t>Bemerkung</t>
   </si>
 </sst>
 </file>
@@ -158,18 +143,80 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -178,10 +225,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -496,412 +554,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60258BEF-466A-4C51-9F73-8D63F9E075FE}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>60</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>90</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <f>(C2+4*D2+E2)/6</f>
         <v>60</v>
       </c>
-      <c r="G2">
-        <f>(E2-C2)^2/36</f>
+      <c r="G2" s="5">
+        <f>(C2-E2)^2/36</f>
         <v>100</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>45</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>90</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>180</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="0">(C3+4*D3+E3)/6</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F11" si="0">(C3+4*D3+E3)/6</f>
         <v>97.5</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G12" si="1">(E3-C3)^2/36</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G11" si="1">(C3-E3)^2/36</f>
         <v>506.25</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>45</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>60</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>120</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>240</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
         <v>180</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>240</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>480</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
         <v>120</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>180</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>240</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>120</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>180</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4">
         <v>30</v>
       </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>60</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>120</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
         <v>120</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>180</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>300</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
         <v>120</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>180</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>300</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="H11" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7">
+        <f>SUM(F2:F11)</f>
+        <v>1347.5</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUM(G2:G11)</f>
+        <v>6856.25</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUM(H2:H11)</f>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="F14" s="7">
+        <f>F12+2*G12^0.5</f>
+        <v>1513.1049516167918</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12">
-        <v>60</v>
-      </c>
-      <c r="D12">
-        <v>120</v>
-      </c>
-      <c r="E12">
-        <v>240</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ref="G13" si="2">(E13-C13)^2/36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <f>SUM(F2:F13)</f>
-        <v>1477.5</v>
-      </c>
-      <c r="G14">
-        <f>SUM(G2:G13)</f>
-        <v>7756.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E16" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F16">
-        <f>F14+2*G14^0.5</f>
-        <v>1653.6391495380853</v>
-      </c>
-      <c r="H16">
-        <f>SUM(H2:H13)</f>
-        <v>882</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F17">
-        <f>F16/60</f>
-        <v>27.560652492301422</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17">
-        <f>H16/60</f>
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F18">
-        <f>F17/3</f>
-        <v>9.1868841641004746</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
+      <c r="F15" s="7">
+        <f>F14/60</f>
+        <v>25.218415860279865</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
+        <f>H12/60</f>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
